--- a/data/guardint_survey.xlsx
+++ b/data/guardint_survey.xlsx
@@ -950,7 +950,7 @@
     <t>CSO Professionals</t>
   </si>
   <si>
-    <t>Media Professionals</t>
+    <t>Journalists</t>
   </si>
   <si>
     <t>A1: I had enough time</t>
